--- a/src/assets/downloadFIle/template.xlsx
+++ b/src/assets/downloadFIle/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\haball\scf-ui\src\assets\downloadFIle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Burhan Ul Haq\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B29235-9346-439E-9947-BF6367838B45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECB5083-3CD5-4474-88DF-ADAC89C6B52B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,9 @@
     <sheet name="Invoice and Order Details" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Invoice and Order Details'!$B$1:$B$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Invoice and Order Details'!$B$1:$B$7</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,9 +43,6 @@
     <t>Buyer Bank Account Number</t>
   </si>
   <si>
-    <t>Date of Registration</t>
-  </si>
-  <si>
     <t>Order Reference No.</t>
   </si>
   <si>
@@ -64,24 +61,12 @@
     <t>Net Amount</t>
   </si>
   <si>
-    <t>Order Date</t>
-  </si>
-  <si>
     <t>Invoice Reference No.</t>
   </si>
   <si>
-    <t>Invoice Date</t>
-  </si>
-  <si>
     <t>Transaction Amount</t>
   </si>
   <si>
-    <t>Transaction Date</t>
-  </si>
-  <si>
-    <t>Bank Branch</t>
-  </si>
-  <si>
     <t>No. of Years in Similar Business</t>
   </si>
   <si>
@@ -91,15 +76,6 @@
     <t>Annual Turnover</t>
   </si>
   <si>
-    <t>Late Payment</t>
-  </si>
-  <si>
-    <t>Short Payment</t>
-  </si>
-  <si>
-    <t>Bounced Cheque</t>
-  </si>
-  <si>
     <t>Business Relationship with Anchor</t>
   </si>
   <si>
@@ -115,9 +91,6 @@
     <t>Suggested Financing Limit</t>
   </si>
   <si>
-    <t>Suggested Financing Period</t>
-  </si>
-  <si>
     <t>Anchor Code</t>
   </si>
   <si>
@@ -134,6 +107,33 @@
   </si>
   <si>
     <t>Company Name</t>
+  </si>
+  <si>
+    <t>Bank Branch Code</t>
+  </si>
+  <si>
+    <t>Date of Registration (dd/mm/yyyy)</t>
+  </si>
+  <si>
+    <t>Suggested Financing Period (dd/mm/yyyy)</t>
+  </si>
+  <si>
+    <t>Transaction Date (dd/mm/yyyy)</t>
+  </si>
+  <si>
+    <t>Order Date (dd/mm/yyyy)</t>
+  </si>
+  <si>
+    <t>Invoice Date (dd/mm/yyyy)</t>
+  </si>
+  <si>
+    <t>Late Payment (Yes/No)</t>
+  </si>
+  <si>
+    <t>Short Payment (Yes/No)</t>
+  </si>
+  <si>
+    <t>Bounced Cheque (Yes/No)</t>
   </si>
 </sst>
 </file>
@@ -149,9 +149,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -174,24 +172,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -504,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:R4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,14 +510,14 @@
     <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="29" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.85546875" customWidth="1"/>
     <col min="16" max="16" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="39.5703125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -538,82 +526,59 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
         <v>3</v>
       </c>
       <c r="K1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="M1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
         <v>19</v>
-      </c>
-      <c r="P1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>27</v>
       </c>
       <c r="R1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="5"/>
-      <c r="F2" s="1"/>
-      <c r="H2" s="2"/>
-      <c r="J2" s="1"/>
-      <c r="L2" s="3"/>
-      <c r="R2" s="3"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C3" s="4"/>
-      <c r="F3" s="1"/>
-      <c r="H3" s="2"/>
-      <c r="J3" s="1"/>
-      <c r="L3" s="3"/>
-      <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C4" s="4"/>
-      <c r="F4" s="1"/>
-      <c r="H4" s="2"/>
-      <c r="J4" s="1"/>
-      <c r="L4" s="3"/>
-      <c r="R4" s="3"/>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -621,30 +586,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:R34"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -652,175 +619,77 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C2" s="3"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C3" s="3"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C4" s="3"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C5" s="3"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C6" s="3"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="3"/>
+      <c r="C7" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/src/assets/downloadFIle/template.xlsx
+++ b/src/assets/downloadFIle/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Burhan Ul Haq\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECB5083-3CD5-4474-88DF-ADAC89C6B52B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFE54D9-B0C9-4985-9071-70C7D25AE802}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buyer Details" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Buyer Code</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Bounced Cheque (Yes/No)</t>
+  </si>
+  <si>
+    <t>Approval Required</t>
   </si>
 </sst>
 </file>
@@ -492,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,10 +521,11 @@
     <col min="16" max="16" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -575,6 +579,9 @@
       </c>
       <c r="R1" t="s">
         <v>28</v>
+      </c>
+      <c r="S1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -588,7 +595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>

--- a/src/assets/downloadFIle/template.xlsx
+++ b/src/assets/downloadFIle/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Burhan Ul Haq\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFE54D9-B0C9-4985-9071-70C7D25AE802}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E22F695-7D2F-4A2E-873F-33091ACF3899}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Buyer Code</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Date of Registration (dd/mm/yyyy)</t>
   </si>
   <si>
-    <t>Suggested Financing Period (dd/mm/yyyy)</t>
-  </si>
-  <si>
     <t>Transaction Date (dd/mm/yyyy)</t>
   </si>
   <si>
@@ -136,7 +133,13 @@
     <t>Bounced Cheque (Yes/No)</t>
   </si>
   <si>
-    <t>Approval Required</t>
+    <t>Approval Required (Yes/No)</t>
+  </si>
+  <si>
+    <t>Suggested Financing Period Start (dd/mm/yyyy)</t>
+  </si>
+  <si>
+    <t>Suggested Financing Period End (dd/mm/yyyy)</t>
   </si>
 </sst>
 </file>
@@ -495,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -520,12 +523,13 @@
     <col min="15" max="15" width="18.85546875" customWidth="1"/>
     <col min="16" max="16" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" customWidth="1"/>
+    <col min="18" max="18" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -578,10 +582,13 @@
         <v>19</v>
       </c>
       <c r="R1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -629,28 +636,28 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>33</v>
-      </c>
-      <c r="H1" t="s">
-        <v>34</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K1" t="s">
         <v>5</v>

--- a/src/assets/downloadFIle/template.xlsx
+++ b/src/assets/downloadFIle/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Burhan Ul Haq\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Burhan Ul Haq\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E22F695-7D2F-4A2E-873F-33091ACF3899}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF79528-1AEE-467B-98F2-27C8FEF8FC5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,9 +40,6 @@
     <t>NTN Number</t>
   </si>
   <si>
-    <t>Buyer Bank Account Number</t>
-  </si>
-  <si>
     <t>Order Reference No.</t>
   </si>
   <si>
@@ -79,15 +76,6 @@
     <t>Business Relationship with Anchor</t>
   </si>
   <si>
-    <t>Owner Mobile Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Owner Email Address </t>
-  </si>
-  <si>
-    <t>Owner CNIC Number</t>
-  </si>
-  <si>
     <t>Suggested Financing Limit</t>
   </si>
   <si>
@@ -109,9 +97,6 @@
     <t>Company Name</t>
   </si>
   <si>
-    <t>Bank Branch Code</t>
-  </si>
-  <si>
     <t>Date of Registration (dd/mm/yyyy)</t>
   </si>
   <si>
@@ -140,6 +125,21 @@
   </si>
   <si>
     <t>Suggested Financing Period End (dd/mm/yyyy)</t>
+  </si>
+  <si>
+    <t>CNIC Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email Address </t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>Bank Account Number</t>
+  </si>
+  <si>
+    <t>Branch Code</t>
   </si>
 </sst>
 </file>
@@ -534,61 +534,61 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
-        <v>19</v>
-      </c>
       <c r="R1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="S1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -603,7 +603,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,55 +633,55 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>33</v>
-      </c>
       <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>8</v>
-      </c>
-      <c r="R1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
